--- a/output/google_maps_data_ATM_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_ATM_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-7.782776</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.782776</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.368061</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Graha+Tugu/@-7.7867314,110.3618133,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58308b5a29fb:0x7c5eb8ec8c902254!8m2!3d-7.7827759!4d110.3680609!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c67vjx3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Graha+Tugu/@-7.7867314,110.3618133,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58308b5a29fb:0x7c5eb8ec8c902254!8m2!3d-7.7827759!4d110.3680609!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c67vjx3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.783228</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.783228</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.369269</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM+KC+Yogya+Sudirman+%2F+CDM/@-7.7867314,110.3618133,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57876d285fc7:0x746c23e22fbf9e2e!8m2!3d-7.7832277!4d110.3692685!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6j20gyq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM+KC+Yogya+Sudirman+%2F+CDM/@-7.7867314,110.3618133,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57876d285fc7:0x746c23e22fbf9e2e!8m2!3d-7.7832277!4d110.3692685!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6j20gyq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -597,25 +590,24 @@
           <t>(021) 5237788</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>-7.786326</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.786326</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.366888</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Permata+MANGKUBUMI2/@-7.7867314,110.3618133,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582556020d3d:0xdf6e3a514ddcefbb!8m2!3d-7.7863257!4d110.3668881!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1jmcfh5d9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Permata+MANGKUBUMI2/@-7.7867314,110.3618133,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582556020d3d:0xdf6e3a514ddcefbb!8m2!3d-7.7863257!4d110.3668881!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1jmcfh5d9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -643,22 +635,21 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.781717</v>
+      </c>
       <c r="G5" t="n">
-        <v>-7.781717</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.367414</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+SPBU+SPBU+AM+SANGAJI+44.552.1/@-7.7867314,110.3618133,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a591f61ca9921:0xbc8e67943276191c!8m2!3d-7.7817168!4d110.3674141!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11rqz2m2yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,22 +669,21 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-7.782769</v>
+      </c>
       <c r="G6" t="n">
-        <v>-7.782769</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.364488</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Ina+Perdana/@-7.7827687,110.3554759,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a4d9b4a15:0xf076797068e3038a!8m2!3d-7.7827687!4d110.3644881!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzvm13t5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,25 +706,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.78328</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.78328</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.369949</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Drive+Thru/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5831a7df304d:0x74b30c8f06776a3c!8m2!3d-7.7832797!4d110.3699493!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c2q80sjy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Drive+Thru/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5831a7df304d:0x74b30c8f06776a3c!8m2!3d-7.7832797!4d110.3699493!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c2q80sjy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -753,25 +742,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>-7.790715</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.790715</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.366263</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825fc3b4103:0x2874dd60870ea987!8m2!3d-7.7907154!4d110.3662631!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7sj772?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825fc3b4103:0x2874dd60870ea987!8m2!3d-7.7907154!4d110.3662631!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7sj772?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -798,25 +786,24 @@
           <t>(0274) 586425</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.3</v>
+        <v>-7.783438</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.783438</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.369218</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM+KC+Yogya+Sudirman+%2FNon+Tunai/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57876d285fc7:0xe5fde05ae33821be!8m2!3d-7.7834385!4d110.3692177!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6jyqxxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM+KC+Yogya+Sudirman+%2FNon+Tunai/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57876d285fc7:0xe5fde05ae33821be!8m2!3d-7.7834385!4d110.3692177!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6jyqxxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -839,25 +826,24 @@
           <t>(0274) 14005</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>-7.782857</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.782857</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.36612</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bukopin/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a7c77ec93:0xaa58c72037ae1075!8m2!3d-7.782857!4d110.36612!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzphl734?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bukopin/@-7.7832797,110.3609371,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a7c77ec93:0xaa58c72037ae1075!8m2!3d-7.782857!4d110.36612!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzphl734?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -884,25 +870,24 @@
           <t>(021) 14000</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>-7.789944</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.789944</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.364828</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Neo+Malioboro/@-7.789944,110.3558157,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825c6a04275:0x7cde7998544e2b46!8m2!3d-7.789944!4d110.3648279!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11g6bksw28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Neo+Malioboro/@-7.789944,110.3558157,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825c6a04275:0x7cde7998544e2b46!8m2!3d-7.789944!4d110.3648279!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11g6bksw28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -925,25 +910,24 @@
           <t>(021) 29228888</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>-7.783241</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.783241</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.373505</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BII+ATM+KC+Yogyakarta/@-7.7832406,110.3644931,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5832322d7771:0x3a273fd9d1952e20!8m2!3d-7.7832406!4d110.3735053!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F12lkyzx64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BII+ATM+KC+Yogyakarta/@-7.7832406,110.3644931,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5832322d7771:0x3a273fd9d1952e20!8m2!3d-7.7832406!4d110.3735053!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F12lkyzx64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -966,25 +950,24 @@
           <t>1 500 615</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>-7.783096</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.783096</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.366423</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+J+Trust+Diponegoro/@-7.7830963,110.3574109,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a7dd10cc1:0x12bbd41a0d422344!8m2!3d-7.7830963!4d110.3664231!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11fxb3cz70?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+J+Trust+Diponegoro/@-7.7830963,110.3574109,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a7dd10cc1:0x12bbd41a0d422344!8m2!3d-7.7830963!4d110.3664231!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11fxb3cz70?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1003,25 +986,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>-7.788491</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.788491</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.366161</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7830963,110.3574109,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582581e3dee3:0xac62f6e35747305f!8m2!3d-7.7884912!4d110.3661605!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7rlzbn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7830963,110.3574109,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582581e3dee3:0xac62f6e35747305f!8m2!3d-7.7884912!4d110.3661605!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7rlzbn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1044,25 +1026,24 @@
           <t>1 500 017</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>-7.789676</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.789676</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.361347</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+%2F+CDM+BRI+Unit+PASAR+KEMBANG/@-7.7896757,110.3523345,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58247292b97d:0x4f465c80b2504588!8m2!3d-7.7896757!4d110.3613467!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx0x6y0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+%2F+CDM+BRI+Unit+PASAR+KEMBANG/@-7.7896757,110.3523345,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58247292b97d:0x4f465c80b2504588!8m2!3d-7.7896757!4d110.3613467!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx0x6y0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1081,25 +1062,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>-7.790899</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.790899</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.365908</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+CK+Malioboro/@-7.7908993,110.3568957,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5826099c6ecb:0xb592d96d6b5e7ed1!8m2!3d-7.7908993!4d110.3659079!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7sbpy0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+CK+Malioboro/@-7.7908993,110.3568957,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5826099c6ecb:0xb592d96d6b5e7ed1!8m2!3d-7.7908993!4d110.3659079!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7sbpy0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1118,25 +1098,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.781945</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.781945</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.367602</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI/@-7.7819451,110.3585902,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5830bd90d4d1:0xb108a47662a7037e!8m2!3d-7.7819451!4d110.3676024!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbygj7jm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI/@-7.7819451,110.3585902,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5830bd90d4d1:0xb108a47662a7037e!8m2!3d-7.7819451!4d110.3676024!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbygj7jm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1159,25 +1138,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>-7.785029</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.785029</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.360421</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7850291,110.3514088,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583cad826257:0x89ff2bd3b9426602!8m2!3d-7.7850291!4d110.360421!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzwb2bgx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7850291,110.3514088,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583cad826257:0x89ff2bd3b9426602!8m2!3d-7.7850291!4d110.360421!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzwb2bgx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1197,22 +1175,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.791746</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.791746</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.363794</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7850291,110.3514088,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582662e61563:0xdb9a83cccd533ab8!8m2!3d-7.791746!4d110.363794!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7q_l0g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1227,25 +1204,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.78953</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.78953</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.363602</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Galeri+ATM+Stasiun+Tugu/@-7.7850291,110.3514088,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58244b255553:0x3a0a20c725aad2e3!8m2!3d-7.7895296!4d110.3636024!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11dfjbdtks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Galeri+ATM+Stasiun+Tugu/@-7.7850291,110.3514088,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58244b255553:0x3a0a20c725aad2e3!8m2!3d-7.7895296!4d110.3636024!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11dfjbdtks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1265,22 +1241,21 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-7.782738</v>
+      </c>
       <c r="G21" t="n">
-        <v>-7.782738</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.366469</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BRI/@-7.7827385,110.3574567,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a590030c793bf:0x7bb458731ef837d8!8m2!3d-7.7827385!4d110.3664689!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11y5c1w0_l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1303,25 +1278,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.801351</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.801351</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.359481</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Mandiri+Ahmad+Dahlan/@-7.801351,110.3504687,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a578bf67feccb:0x37963e2b83548075!8m2!3d-7.801351!4d110.3594809!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11g8xf5zlg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1340,25 +1314,24 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>-7.782022</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.782022</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.372285</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+MANDIRI/@-7.7820223,110.3632725,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583164afa01d:0xbab9338df87a2fc2!8m2!3d-7.7820223!4d110.3722847!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11csbqmwxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+MANDIRI/@-7.7820223,110.3632725,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583164afa01d:0xbab9338df87a2fc2!8m2!3d-7.7820223!4d110.3722847!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11csbqmwxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1380,16 +1353,15 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Ina+Perdana/@-7.7899949,110.3551913,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a590ee1c47ca5:0x5853305658c14b16!8m2!3d-7.7899949!4d110.3642035!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11tx2_hwd8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1404,25 +1376,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.783406</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.783406</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.376211</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+UOB+-+UOB+KCU+Yogyakarta/@-7.7834061,110.3671983,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59f7184b964b:0x3a4c462011c77f5f!8m2!3d-7.7834061!4d110.3762105!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11rscw2_4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1448,16 +1419,15 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+-+UNIT+BRI+JETIS/@-7.7833887,110.3581061,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a597c4fd73563:0xec4bb75e2b284813!8m2!3d-7.7833887!4d110.3671183!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11rqz2y4p2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1476,25 +1446,24 @@
           <t>1 500 017</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F27" t="n">
-        <v>3.8</v>
+        <v>-7.783389</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.783389</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.378148</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+RS+Bethesda+Jogja/@-7.7833894,110.3691354,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5832ce86d4f3:0x5ccab381e5e71237!8m2!3d-7.7833894!4d110.3781476!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbyh74c0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+RS+Bethesda+Jogja/@-7.7833894,110.3691354,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5832ce86d4f3:0x5ccab381e5e71237!8m2!3d-7.7833894!4d110.3781476!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbyh74c0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1521,25 +1490,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.2</v>
+        <v>-7.783581</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.783581</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.378376</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Mandiri+RS+Bethesda+Jogja/@-7.7833894,110.3691354,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5832cb76c325:0xace04bef8ed0ee0f!8m2!3d-7.7835808!4d110.378376!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bby37yv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1562,25 +1530,24 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.790021</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.790021</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.364191</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7900208,110.3551792,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825b6d6c9e3:0xfddf5df28065312b!8m2!3d-7.7900208!4d110.3641914!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6kk73k3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7900208,110.3551792,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825b6d6c9e3:0xfddf5df28065312b!8m2!3d-7.7900208!4d110.3641914!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6kk73k3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1608,22 +1575,21 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-7.783142</v>
+      </c>
       <c r="G30" t="n">
-        <v>-7.783142</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.373585</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Maybank+KC+Yogyakarta+2/@-7.7831418,110.3645727,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59c84057b34b:0x4ec0308ae3dc48ed!8m2!3d-7.7831418!4d110.3735849!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11lnlpvn92?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1646,25 +1612,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>-7.79339</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.79339</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.366193</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.79339,110.3571808,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5827d297bd9f:0xae2e96ff4fb0b5!8m2!3d-7.79339!4d110.366193!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11b73r3m_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.79339,110.3571808,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5827d297bd9f:0xae2e96ff4fb0b5!8m2!3d-7.79339!4d110.366193!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11b73r3m_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1684,22 +1649,21 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-7.78791</v>
+      </c>
       <c r="G32" t="n">
-        <v>-7.78791</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.359928</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BRI+Ditlantas+Polda+DIY/@-7.7879102,110.3509158,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58236ef8becb:0xc0f0615ea7cbca02!8m2!3d-7.7879102!4d110.359928!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c5_lz7n9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1722,25 +1686,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>-7.79077</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.79077</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.366693</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+KK+INNA+GARUDA/@-7.7907697,110.357681,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d39fcb4da3:0xe6de2dd9b1fa044a!8m2!3d-7.7907697!4d110.3666932!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11sqkj4d36?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+KK+INNA+GARUDA/@-7.7907697,110.357681,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d39fcb4da3:0xe6de2dd9b1fa044a!8m2!3d-7.7907697!4d110.3666932!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11sqkj4d36?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1768,22 +1731,21 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.790309</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.790309</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.375804</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+YOGYAKARTA+DAOP+6/@-7.7903086,110.3667913,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59c721c00699:0x554b868c7c242c38!8m2!3d-7.7903086!4d110.3758035!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11rqz350d_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1798,25 +1760,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.782754</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.782754</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.365259</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Rabobank/@-7.7827545,110.3562472,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a677a4c49:0x8ad2bee4903e4a40!8m2!3d-7.7827545!4d110.3652594!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11f3w7ychg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Rabobank/@-7.7827545,110.3562472,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a677a4c49:0x8ad2bee4903e4a40!8m2!3d-7.7827545!4d110.3652594!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11f3w7ychg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1835,25 +1796,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F36" t="n">
-        <v>3.6</v>
+        <v>-7.783232</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.783232</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.372728</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.783232,110.3637158,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58322982d1dd:0x71cdc92c83e8566!8m2!3d-7.783232!4d110.372728!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11f50c0x2j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.783232,110.3637158,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58322982d1dd:0x71cdc92c83e8566!8m2!3d-7.783232!4d110.372728!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11f50c0x2j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1873,22 +1833,21 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.788199</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.788199</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.359092</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BPD+DIY+Samsat+Kota+Yogyakarta/@-7.7881988,110.3500797,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5970c383c119:0xf98dffcc122fdfec!8m2!3d-7.7881988!4d110.3590919!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11kpzn6zg3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1903,25 +1862,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F38" t="n">
-        <v>3.8</v>
+        <v>-7.783303</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.783303</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.373414</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+Maybank/@-7.7833032,110.3644022,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58322e298873:0x4b6a0acdd3cfc90d!8m2!3d-7.7833032!4d110.3734144!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F12llx1swk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+Maybank/@-7.7833032,110.3644022,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58322e298873:0x4b6a0acdd3cfc90d!8m2!3d-7.7833032!4d110.3734144!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F12llx1swk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1949,22 +1907,21 @@
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-7.798959</v>
+      </c>
       <c r="G39" t="n">
-        <v>-7.798959</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.366527</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+-+PASAR+BRINGHARJO/@-7.7989589,110.3575148,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a579123716c89:0x59052ab850171551!8m2!3d-7.7989589!4d110.366527!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11sqkhbtrn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1987,25 +1944,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.7</v>
+        <v>-7.77643</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.77643</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.375124</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+-+MIROTA+KAMPUS/@-7.77643,110.3661115,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d10af4bf63:0xdbd9029f2592e0e7!8m2!3d-7.77643!4d110.3751237!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11pzylvl6b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+-+MIROTA+KAMPUS/@-7.77643,110.3661115,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d10af4bf63:0xdbd9029f2592e0e7!8m2!3d-7.77643!4d110.3751237!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11pzylvl6b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2032,25 +1988,24 @@
           <t>(0274) 14000</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F41" t="n">
-        <v>3.7</v>
+        <v>-7.783144</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.783144</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.362263</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7831438,110.3532511,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583af867065f:0x6f0789656f3b8e99!8m2!3d-7.7831438!4d110.3622633!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11btlqgq_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7831438,110.3532511,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583af867065f:0x6f0789656f3b8e99!8m2!3d-7.7831438!4d110.3622633!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11btlqgq_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2078,22 +2033,21 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.798447</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.798447</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.367906</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BNI+RISMA+SWALAYAN/@-7.7984473,110.3588937,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5787cb1c009f:0x4c13e7952af2935e!8m2!3d-7.7984473!4d110.3679059!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11b5pj8l0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2113,22 +2067,21 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-7.792463</v>
+      </c>
       <c r="G43" t="n">
-        <v>-7.792463</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.365332</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Danamon/@-7.7984473,110.3588937,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58263edfc091:0xda61f6a27dcbec4f!8m2!3d-7.792463!4d110.3653315!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzq5b6dl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2148,22 +2101,21 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.797745</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.797745</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.369502</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Bukopin+KCP+Suryotomo+Yogya/@-7.7984473,110.3588937,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5787a14c53f1:0xd38c7baaec55a30c!8m2!3d-7.797745!4d110.3695023!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pv5v533s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2179,22 +2131,21 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-7.797225</v>
+      </c>
       <c r="G45" t="n">
-        <v>-7.797225</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.365118</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7984473,110.3588937,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57885bca5aed:0x70fbd722b80c5dd8!8m2!3d-7.7972254!4d110.3651183!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7lq96r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2217,25 +2168,24 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.2</v>
+        <v>-7.782733</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.782733</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.36266</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7827333,110.3536477,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583bbb1ca3a9:0xa34d93307ba493ba!8m2!3d-7.7827333!4d110.3626599!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1hm2274lv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7827333,110.3536477,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583bbb1ca3a9:0xa34d93307ba493ba!8m2!3d-7.7827333!4d110.3626599!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1hm2274lv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2262,25 +2212,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.790155</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.790155</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.36476</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Neo+Malioboro/@-7.7827333,110.3536477,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825c441d589:0xdb319e4ab6af1483!8m2!3d-7.790155!4d110.3647599!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11g6bjvv2s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Neo+Malioboro/@-7.7827333,110.3536477,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5825c441d589:0xdb319e4ab6af1483!8m2!3d-7.790155!4d110.3647599!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11g6bjvv2s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2303,25 +2252,24 @@
           <t>(0274) 14005</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>-7.798101</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.798101</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.369469</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bukopin/@-7.7981011,110.3604565,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5787abd7a7d5:0x953817977fd3a4b7!8m2!3d-7.7981011!4d110.3694687!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzsc9_qs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bukopin/@-7.7981011,110.3604565,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5787abd7a7d5:0x953817977fd3a4b7!8m2!3d-7.7981011!4d110.3694687!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzsc9_qs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -2340,25 +2288,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.2</v>
+        <v>-7.781348</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.781348</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.374935</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Drive+thru/@-7.7813485,110.3659231,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5833988f08df:0xc39c02f2e12ab4e4!8m2!3d-7.7813485!4d110.3749353!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c1vqmr87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Drive+thru/@-7.7813485,110.3659231,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5833988f08df:0xc39c02f2e12ab4e4!8m2!3d-7.7813485!4d110.3749353!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c1vqmr87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2385,25 +2332,24 @@
           <t>(021) 1500888</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F50" t="n">
-        <v>3.8</v>
+        <v>-7.78313</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.78313</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.365987</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7831299,110.3569748,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a865f7a45:0x48cc619480927c7f!8m2!3d-7.7831299!4d110.365987!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6kj_pbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7831299,110.3569748,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a865f7a45:0x48cc619480927c7f!8m2!3d-7.7831299!4d110.365987!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1q6kj_pbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2431,22 +2377,21 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-7.799208</v>
+      </c>
       <c r="G51" t="n">
-        <v>-7.799208</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.368622</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+-+TAMAN+PINTAR/@-7.7992082,110.3596099,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a574912663977:0xd32763cdfa7e8ded!8m2!3d-7.7992082!4d110.3686221!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11sqkj10m0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2469,25 +2414,24 @@
           <t>(021) 26533555</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>-7.782194</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.782194</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.372178</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BTN+SPBU+Terban/@-7.7821939,110.3631662,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583176d9f54b:0xcc15907c1c776d00!8m2!3d-7.7821939!4d110.3721784!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzpq45vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BTN+SPBU+Terban/@-7.7821939,110.3631662,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583176d9f54b:0xcc15907c1c776d00!8m2!3d-7.7821939!4d110.3721784!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzpq45vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -2507,22 +2451,21 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>-7.799174</v>
+      </c>
       <c r="G53" t="n">
-        <v>-7.799174</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.366014</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BRI/@-7.7991744,110.3570022,16z/data=!3m1!5s0x2e7a57862ad2ee45:0xde643eb81b63559!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57ceaf34743f:0x58dc161ca42c03f!8m2!3d-7.7991744!4d110.3660144!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11f770t9w0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2537,25 +2480,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>-7.797276</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.797276</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.364512</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM/@-7.7991744,110.3570022,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a578838468647:0x26cbf97f2e5631e!8m2!3d-7.7972763!4d110.3645119!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx05btf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM/@-7.7991744,110.3570022,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a578838468647:0x26cbf97f2e5631e!8m2!3d-7.7972763!4d110.3645119!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx05btf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -2575,22 +2517,21 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-7.789696</v>
+      </c>
       <c r="G55" t="n">
-        <v>-7.789696</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.361558</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Alfamart+Pringgokusuman/@-7.7896961,110.3525457,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a590034ee7403:0xd80661e941cb66e4!8m2!3d-7.7896961!4d110.3615579!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11ldx8sbtk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2610,22 +2551,21 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-7.783067</v>
+      </c>
       <c r="G56" t="n">
-        <v>-7.783067</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.367758</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BCA+183E+Circle+K+Tugu/@-7.7830668,110.3587461,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58308a2152ab:0x63b82232fb6873b5!8m2!3d-7.7830668!4d110.3677583!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11f3xhmw9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2640,25 +2580,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F57" t="n">
-        <v>3.9</v>
+        <v>-7.782575</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.782575</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.369184</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+CIMB+NIAGA/@-7.7830668,110.3587461,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5827c45fd9a1:0x11dd5769eba39693!8m2!3d-7.7825747!4d110.3691843!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1hc2rnqql?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+CIMB+NIAGA/@-7.7830668,110.3587461,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5827c45fd9a1:0x11dd5769eba39693!8m2!3d-7.7825747!4d110.3691843!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1hc2rnqql?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2681,25 +2620,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.5</v>
+        <v>-7.801277</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.801277</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.368698</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.8012767,110.3596861,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5785e1c01041:0xe4c5f451d37832a7!8m2!3d-7.8012767!4d110.3686983!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzr6xfp0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.8012767,110.3596861,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5785e1c01041:0xe4c5f451d37832a7!8m2!3d-7.8012767!4d110.3686983!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzr6xfp0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2723,22 +2661,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>-7.77895</v>
+      </c>
       <c r="G59" t="n">
-        <v>-7.77895</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.360887</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+Mayapada+ATM/@-7.7789497,110.3518745,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a584733718397:0x44a8122f9a546555!8m2!3d-7.7789497!4d110.3608867!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzq94mx9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2754,22 +2691,21 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>-7.778522</v>
+      </c>
       <c r="G60" t="n">
-        <v>-7.778522</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.369731</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Atm+BNI/@-7.7785218,110.360719,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5836fcdb5607:0x4af0599cc3a1caba!8m2!3d-7.7785218!4d110.3697312!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11fy4515s0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2792,25 +2728,24 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.3</v>
+        <v>-7.789277</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.789277</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.363266</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+STASIUN+KA.+TUGU/@-7.789277,110.3542538,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58244e81a8e5:0xe5e57c359bec0e75!8m2!3d-7.789277!4d110.363266!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEEYmFua-ABAA!16s%2Fg%2F1q6qjdnc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+STASIUN+KA.+TUGU/@-7.789277,110.3542538,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58244e81a8e5:0xe5e57c359bec0e75!8m2!3d-7.789277!4d110.363266!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEEYmFua-ABAA!16s%2Fg%2F1q6qjdnc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2830,22 +2765,21 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>-7.782698</v>
+      </c>
       <c r="G62" t="n">
-        <v>-7.782698</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.364111</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BNI+KLN+Diponegoro/@-7.789277,110.3542538,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583a51ea6ef9:0xbb751ee383b9d5d1!8m2!3d-7.782698!4d110.3641108!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7lswxj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2868,25 +2802,24 @@
           <t>1 500 888</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.2</v>
+        <v>-7.792981</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.792981</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.366116</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.789277,110.3542538,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5827d2a92c51:0x5a1866c7873b5ee9!8m2!3d-7.7929814!4d110.3661155!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1ptymqcdt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.789277,110.3542538,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5827d2a92c51:0x5a1866c7873b5ee9!8m2!3d-7.7929814!4d110.3661155!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1ptymqcdt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2905,25 +2838,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.5</v>
+        <v>-7.798186</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.798186</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.36532</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI/@-7.7981858,110.3563078,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a578867bda1a3:0x3f3e03b24f83c19d!8m2!3d-7.7981858!4d110.36532!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c37ypczd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI/@-7.7981858,110.3563078,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a578867bda1a3:0x3f3e03b24f83c19d!8m2!3d-7.7981858!4d110.36532!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11c37ypczd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2946,25 +2878,24 @@
           <t>1 500 888</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>-7.783226</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.783226</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.372355</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+Circle+K+Sudirman/@-7.783226,110.3633425,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583186daa95d:0xd0be11d061130940!8m2!3d-7.783226!4d110.3723547!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbyftm9z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+Circle+K+Sudirman/@-7.783226,110.3633425,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583186daa95d:0xd0be11d061130940!8m2!3d-7.783226!4d110.3723547!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbyftm9z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2991,25 +2922,24 @@
           <t>(021) 1500010</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>-7.783373</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.783373</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.372839</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mega+Jogjakarta/@-7.783226,110.3633425,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5831743ec68d:0x78bf3938a66e9911!8m2!3d-7.7833732!4d110.3728393!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7n9mg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mega+Jogjakarta/@-7.783226,110.3633425,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5831743ec68d:0x78bf3938a66e9911!8m2!3d-7.7833732!4d110.3728393!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7n9mg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>8 tahun lalu</t>
         </is>
@@ -3036,25 +2966,24 @@
           <t>1 500 888</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>-7.783087</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.783087</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.367654</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+Circle+K+Tugu/@-7.7830872,110.358642,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583062877e67:0x14223d01863f3335!8m2!3d-7.7830872!4d110.3676542!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11g8lg0f2t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+Circle+K+Tugu/@-7.7830872,110.358642,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583062877e67:0x14223d01863f3335!8m2!3d-7.7830872!4d110.3676542!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11g8lg0f2t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3077,25 +3006,24 @@
           <t>(0274) 14041</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.4</v>
+        <v>-7.783396</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.783396</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.373825</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+CIMB+Niaga/@-7.7833958,110.3648128,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5832349cfd0b:0x26cdcbe5c1dfbc48!8m2!3d-7.7833958!4d110.373825!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11b75lw4s4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+CIMB+Niaga/@-7.7833958,110.3648128,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5832349cfd0b:0x26cdcbe5c1dfbc48!8m2!3d-7.7833958!4d110.373825!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11b75lw4s4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3115,22 +3043,21 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.814445</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.814445</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.365869</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.8144452,110.3568567,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5797a4e0f227:0x5007e0522cc26f8d!8m2!3d-7.8144452!4d110.3658689!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7pz113?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3149,25 +3076,24 @@
           <t>(021) 14041</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.2</v>
+        <v>-7.78335</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.78335</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.373867</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+CIMB+Niaga/@-7.78335,110.3648548,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58322a9d776f:0xc2885aae47b9ed43!8m2!3d-7.78335!4d110.373867!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEEYmFua-ABAA!16s%2Fg%2F1tpfgbb3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+CIMB+Niaga/@-7.78335,110.3648548,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58322a9d776f:0xc2885aae47b9ed43!8m2!3d-7.78335!4d110.373867!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEEYmFua-ABAA!16s%2Fg%2F1tpfgbb3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3186,25 +3112,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F71" t="n">
-        <v>3.7</v>
+        <v>-7.792097</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.792097</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.36576</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7920971,110.3567476,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58263025d213:0x98dd0dc0622455c5!8m2!3d-7.7920971!4d110.3657598!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7r_tz4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7920971,110.3567476,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58263025d213:0x98dd0dc0622455c5!8m2!3d-7.7920971!4d110.3657598!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7r_tz4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3227,25 +3152,24 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4</v>
+      </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>-7.798788</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.798788</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.36903</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7920971,110.3567476,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5787b29e4867:0xe44c278d11fe3859!8m2!3d-7.7987878!4d110.3690299!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx09qq2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7920971,110.3567476,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5787b29e4867:0xe44c278d11fe3859!8m2!3d-7.7987878!4d110.3690299!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx09qq2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3265,22 +3189,21 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>-7.794376</v>
+      </c>
       <c r="G73" t="n">
-        <v>-7.794376</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.365963</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7920971,110.3567476,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5827db6975f9:0xe752f42de6f2507c!8m2!3d-7.7943762!4d110.3659633!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bc7qgr6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3299,25 +3222,24 @@
           <t>(021) 1500888</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F74" t="n">
-        <v>3.9</v>
+        <v>-7.791742</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.791742</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.363364</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+Malioboro+mart+Sosrowijayan+II/@-7.7920971,110.3567476,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58268861aaf7:0x30e3fe360dc142a3!8m2!3d-7.7917422!4d110.3633642!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx10ycf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+Malioboro+mart+Sosrowijayan+II/@-7.7920971,110.3567476,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58268861aaf7:0x30e3fe360dc142a3!8m2!3d-7.7917422!4d110.3633642!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11bbx10ycf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3336,25 +3258,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4</v>
+      </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>-7.776519</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.776519</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.375136</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Atm+Center+(CIMB+Niaga,+Danamon,+BRI,+BNI)/@-7.7765186,110.3661235,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5835a25f3027:0x1851fee9db48d19a!8m2!3d-7.7765186!4d110.3751357!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1hm2z0fly?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Atm+Center+(CIMB+Niaga,+Danamon,+BRI,+BNI)/@-7.7765186,110.3661235,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5835a25f3027:0x1851fee9db48d19a!8m2!3d-7.7765186!4d110.3751357!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1hm2z0fly?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3381,25 +3302,24 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.5</v>
+        <v>-7.778522</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.778522</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.369729</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Jalan+Sardjito/@-7.7785215,110.360717,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5836e5499c2f:0x89ca6d4ac8a97886!8m2!3d-7.7785215!4d110.3697292!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11byx8kvwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Jalan+Sardjito/@-7.7785215,110.360717,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5836e5499c2f:0x89ca6d4ac8a97886!8m2!3d-7.7785215!4d110.3697292!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11byx8kvwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3427,22 +3347,21 @@
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>-7.789054</v>
+      </c>
       <c r="G77" t="n">
-        <v>-7.789054</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.363572</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+CIMB+Niaga+(Stasiun+KA+Tugu+Yogyakarta)/@-7.7890545,110.3545597,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5912584d4abb:0xec158a59c4d02688!8m2!3d-7.7890545!4d110.3635719!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11wwpld0pg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3461,25 +3380,24 @@
           <t>(021) 14041</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.1</v>
+        <v>-7.79321</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.79321</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.36636</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CIMB+NIAGA+Yogyakarta+-+Malioboro+Mall+Yogyakarta/@-7.7890545,110.3545597,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59f1478ad305:0x922a4817e742126c!8m2!3d-7.79321!4d110.36636!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11qps1gcs9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CIMB+NIAGA+Yogyakarta+-+Malioboro+Mall+Yogyakarta/@-7.7890545,110.3545597,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59f1478ad305:0x922a4817e742126c!8m2!3d-7.79321!4d110.36636!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11qps1gcs9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3502,25 +3420,24 @@
           <t>(0622) 1500999</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F79" t="n">
-        <v>3.3</v>
+        <v>-7.793099</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.793099</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.365701</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+OCBC+NISP/@-7.7890545,110.3545597,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582632265c55:0x4050db52ccb7def4!8m2!3d-7.7930992!4d110.365701!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11cs6bh1hy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+OCBC+NISP/@-7.7890545,110.3545597,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582632265c55:0x4050db52ccb7def4!8m2!3d-7.7930992!4d110.365701!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F11cs6bh1hy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3547,25 +3464,24 @@
           <t>(021) 26533555</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>2.7</v>
+      </c>
       <c r="F80" t="n">
-        <v>2.7</v>
+        <v>-7.782509</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.782509</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.374636</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BTN+Sudirman/@-7.7825095,110.3656242,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5833d32a58b1:0x110e0a8d54327dac!8m2!3d-7.7825095!4d110.3746364!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzw9fsv3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BTN+Sudirman/@-7.7825095,110.3656242,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5833d32a58b1:0x110e0a8d54327dac!8m2!3d-7.7825095!4d110.3746364!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1pzw9fsv3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3588,25 +3504,24 @@
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.8</v>
+        <v>-7.79919</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.79919</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.366035</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7991896,110.3570223,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57889bf05dc3:0x1e7bad5e9a30c6ba!8m2!3d-7.7991896!4d110.3660345!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1ptz5xbgn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7991896,110.3570223,16z/data=!4m11!1m3!2m2!1sATM+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57889bf05dc3:0x1e7bad5e9a30c6ba!8m2!3d-7.7991896!4d110.3660345!15sChNBVE0gS290YSBZb2d5YWthcnRhkgEDYXRt4AEA!16s%2Fg%2F1ptz5xbgn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
